--- a/data/refined/health/health.xlsx
+++ b/data/refined/health/health.xlsx
@@ -19,25 +19,25 @@
     <t>지역</t>
   </si>
   <si>
-    <t>삶의질지수_표준화율</t>
+    <t>삶의질지수</t>
   </si>
   <si>
-    <t>양호한주관적건강수준인지율_표준화율</t>
+    <t>양호한주관적건강수준인지율</t>
   </si>
   <si>
-    <t>스트레스인지율_표준화율</t>
+    <t>스트레스인지율</t>
   </si>
   <si>
-    <t>우울감경험률_표준화율</t>
+    <t>우울감경험률</t>
   </si>
   <si>
-    <t>주관적구강건강이나쁜인구의분율_표준화율</t>
+    <t>주관적구강건강이나쁜인구의분율</t>
   </si>
   <si>
     <t>연도</t>
   </si>
   <si>
-    <t>연간보건기관이용률_표준화율</t>
+    <t>연간보건기관이용률</t>
   </si>
   <si>
     <t>서울특별시</t>

--- a/data/refined/health/health.xlsx
+++ b/data/refined/health/health.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63121ca9753f69cb/문서/0.PythonWorkSpace/0.PyCharmProject/Water_project_self/data/refined/health/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_FFC65FC066212FBAE0253B618FE8612360B5B17C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F17C0C29-FD43-4F5A-9239-5E870915304B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$201</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -94,12 +103,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -107,8 +116,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -158,6 +174,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -204,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,9 +260,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,6 +312,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,14 +505,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -486,7 +547,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.966</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="D2">
         <v>51</v>
@@ -504,7 +565,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -512,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>0.964</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="D3">
         <v>48.3</v>
@@ -530,7 +591,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -538,7 +599,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.963</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D4">
         <v>46.4</v>
@@ -550,13 +611,13 @@
         <v>7.2</v>
       </c>
       <c r="G4">
-        <v>37.7</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="H4">
         <v>2008</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -564,7 +625,7 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="D5">
         <v>49.8</v>
@@ -573,7 +634,7 @@
         <v>27.3</v>
       </c>
       <c r="F5">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G5">
         <v>35.1</v>
@@ -582,7 +643,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -590,7 +651,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D6">
         <v>48.4</v>
@@ -599,7 +660,7 @@
         <v>26.8</v>
       </c>
       <c r="F6">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G6">
         <v>35.4</v>
@@ -608,7 +669,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -616,7 +677,7 @@
         <v>13</v>
       </c>
       <c r="C7">
-        <v>0.967</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="D7">
         <v>51.4</v>
@@ -634,7 +695,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -642,7 +703,7 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="D8">
         <v>43.4</v>
@@ -660,7 +721,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -668,7 +729,7 @@
         <v>15</v>
       </c>
       <c r="C9">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="D9">
         <v>48.5</v>
@@ -677,7 +738,7 @@
         <v>29.6</v>
       </c>
       <c r="F9">
-        <v>9.199999999999999</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G9">
         <v>34.1</v>
@@ -686,7 +747,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -694,7 +755,7 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>0.946</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D10">
         <v>47.1</v>
@@ -703,7 +764,7 @@
         <v>28.1</v>
       </c>
       <c r="F10">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G10">
         <v>38.5</v>
@@ -712,7 +773,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -720,7 +781,7 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="D11">
         <v>53.7</v>
@@ -732,13 +793,13 @@
         <v>8</v>
       </c>
       <c r="G11">
-        <v>32.7</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="H11">
         <v>2008</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -746,7 +807,7 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="D12">
         <v>50.5</v>
@@ -764,7 +825,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -790,7 +851,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -798,7 +859,7 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>0.955</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="D14">
         <v>53.6</v>
@@ -810,13 +871,13 @@
         <v>7</v>
       </c>
       <c r="G14">
-        <v>35.2</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="H14">
         <v>2008</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -824,7 +885,7 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>0.955</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="D15">
         <v>45.8</v>
@@ -833,16 +894,16 @@
         <v>27.4</v>
       </c>
       <c r="F15">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G15">
-        <v>37.2</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="H15">
         <v>2008</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -850,7 +911,7 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="D16">
         <v>53.8</v>
@@ -868,7 +929,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -876,7 +937,7 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>0.963</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D17">
         <v>52.4</v>
@@ -894,7 +955,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -902,7 +963,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.964</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="D18">
         <v>49.6</v>
@@ -923,7 +984,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -931,7 +992,7 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="D19">
         <v>48.6</v>
@@ -952,7 +1013,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -960,7 +1021,7 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="D20">
         <v>43.9</v>
@@ -969,7 +1030,7 @@
         <v>29.2</v>
       </c>
       <c r="F20">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G20">
         <v>38.9</v>
@@ -981,7 +1042,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -989,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="D21">
         <v>42.1</v>
@@ -998,10 +1059,10 @@
         <v>31.2</v>
       </c>
       <c r="F21">
-        <v>9.800000000000001</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="G21">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="H21">
         <v>2009</v>
@@ -1010,7 +1071,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1018,7 +1079,7 @@
         <v>12</v>
       </c>
       <c r="C22">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D22">
         <v>50.3</v>
@@ -1030,7 +1091,7 @@
         <v>7</v>
       </c>
       <c r="G22">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="H22">
         <v>2009</v>
@@ -1039,7 +1100,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1047,7 +1108,7 @@
         <v>13</v>
       </c>
       <c r="C23">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="D23">
         <v>51.3</v>
@@ -1065,10 +1126,10 @@
         <v>2009</v>
       </c>
       <c r="I23">
-        <v>18.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1076,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C24">
-        <v>0.965</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="D24">
         <v>45.9</v>
@@ -1097,7 +1158,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1105,7 +1166,7 @@
         <v>15</v>
       </c>
       <c r="C25">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="D25">
         <v>45.8</v>
@@ -1114,10 +1175,10 @@
         <v>31</v>
       </c>
       <c r="F25">
-        <v>8.199999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="G25">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="H25">
         <v>2009</v>
@@ -1126,7 +1187,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1134,7 +1195,7 @@
         <v>16</v>
       </c>
       <c r="C26">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D26">
         <v>44.4</v>
@@ -1155,7 +1216,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1163,7 +1224,7 @@
         <v>17</v>
       </c>
       <c r="C27">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="D27">
         <v>52</v>
@@ -1175,7 +1236,7 @@
         <v>5.6</v>
       </c>
       <c r="G27">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="H27">
         <v>2009</v>
@@ -1184,7 +1245,7 @@
         <v>25.7</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1192,7 +1253,7 @@
         <v>18</v>
       </c>
       <c r="C28">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="D28">
         <v>48.7</v>
@@ -1213,7 +1274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1221,7 +1282,7 @@
         <v>19</v>
       </c>
       <c r="C29">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="D29">
         <v>53.6</v>
@@ -1230,7 +1291,7 @@
         <v>24</v>
       </c>
       <c r="F29">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G29">
         <v>29.4</v>
@@ -1242,7 +1303,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1250,7 +1311,7 @@
         <v>20</v>
       </c>
       <c r="C30">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D30">
         <v>51.3</v>
@@ -1262,7 +1323,7 @@
         <v>5.3</v>
       </c>
       <c r="G30">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="H30">
         <v>2009</v>
@@ -1271,7 +1332,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1279,7 +1340,7 @@
         <v>21</v>
       </c>
       <c r="C31">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D31">
         <v>44.9</v>
@@ -1300,7 +1361,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1329,7 +1390,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1337,13 +1398,13 @@
         <v>23</v>
       </c>
       <c r="C33">
-        <v>0.947</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="D33">
         <v>53.9</v>
       </c>
       <c r="E33">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F33">
         <v>9.5</v>
@@ -1358,7 +1419,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1384,10 +1445,10 @@
         <v>2010</v>
       </c>
       <c r="I34">
-        <v>18.4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1395,7 +1456,7 @@
         <v>9</v>
       </c>
       <c r="C35">
-        <v>0.962</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="D35">
         <v>48.6</v>
@@ -1407,7 +1468,7 @@
         <v>4.8</v>
       </c>
       <c r="G35">
-        <v>35.3</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="H35">
         <v>2010</v>
@@ -1416,7 +1477,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1424,7 +1485,7 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="D36">
         <v>44.4</v>
@@ -1445,7 +1506,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1453,7 +1514,7 @@
         <v>11</v>
       </c>
       <c r="C37">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D37">
         <v>43.7</v>
@@ -1465,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="G37">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="H37">
         <v>2010</v>
@@ -1474,7 +1535,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1482,7 +1543,7 @@
         <v>12</v>
       </c>
       <c r="C38">
-        <v>0.964</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="D38">
         <v>49.2</v>
@@ -1503,7 +1564,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1511,7 +1572,7 @@
         <v>13</v>
       </c>
       <c r="C39">
-        <v>0.968</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="D39">
         <v>54.3</v>
@@ -1532,7 +1593,7 @@
         <v>16.7</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1540,7 +1601,7 @@
         <v>14</v>
       </c>
       <c r="C40">
-        <v>0.961</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="D40">
         <v>46.3</v>
@@ -1561,7 +1622,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1569,7 +1630,7 @@
         <v>15</v>
       </c>
       <c r="C41">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D41">
         <v>47</v>
@@ -1590,7 +1651,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1598,7 +1659,7 @@
         <v>16</v>
       </c>
       <c r="C42">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D42">
         <v>46.9</v>
@@ -1610,7 +1671,7 @@
         <v>6.3</v>
       </c>
       <c r="G42">
-        <v>35.8</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="H42">
         <v>2010</v>
@@ -1619,7 +1680,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1648,7 +1709,7 @@
         <v>27.3</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1656,7 +1717,7 @@
         <v>18</v>
       </c>
       <c r="C44">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="D44">
         <v>53.5</v>
@@ -1677,7 +1738,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1685,7 +1746,7 @@
         <v>19</v>
       </c>
       <c r="C45">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D45">
         <v>52.8</v>
@@ -1694,7 +1755,7 @@
         <v>27.5</v>
       </c>
       <c r="F45">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G45">
         <v>30.5</v>
@@ -1706,7 +1767,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1714,7 +1775,7 @@
         <v>20</v>
       </c>
       <c r="C46">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D46">
         <v>52.5</v>
@@ -1732,10 +1793,10 @@
         <v>2010</v>
       </c>
       <c r="I46">
-        <v>36.3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1743,7 +1804,7 @@
         <v>21</v>
       </c>
       <c r="C47">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D47">
         <v>43.8</v>
@@ -1755,16 +1816,16 @@
         <v>5.3</v>
       </c>
       <c r="G47">
-        <v>34.8</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="H47">
         <v>2010</v>
       </c>
       <c r="I47">
-        <v>32.2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1772,7 +1833,7 @@
         <v>22</v>
       </c>
       <c r="C48">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D48">
         <v>44.5</v>
@@ -1793,7 +1854,7 @@
         <v>34.9</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1801,7 +1862,7 @@
         <v>23</v>
       </c>
       <c r="C49">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="D49">
         <v>55</v>
@@ -1813,7 +1874,7 @@
         <v>6.2</v>
       </c>
       <c r="G49">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="H49">
         <v>2010</v>
@@ -1822,7 +1883,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1830,7 +1891,7 @@
         <v>8</v>
       </c>
       <c r="C50">
-        <v>0.945</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="D50">
         <v>46.1</v>
@@ -1851,7 +1912,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1859,7 +1920,7 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="D51">
         <v>46.5</v>
@@ -1880,7 +1941,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1888,7 +1949,7 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D52">
         <v>43.9</v>
@@ -1897,7 +1958,7 @@
         <v>27.4</v>
       </c>
       <c r="F52">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G52">
         <v>33.5</v>
@@ -1909,7 +1970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1917,7 +1978,7 @@
         <v>11</v>
       </c>
       <c r="C53">
-        <v>0.947</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="D53">
         <v>45.4</v>
@@ -1938,7 +1999,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1946,7 +2007,7 @@
         <v>12</v>
       </c>
       <c r="C54">
-        <v>0.955</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="D54">
         <v>43.7</v>
@@ -1967,7 +2028,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1975,7 +2036,7 @@
         <v>13</v>
       </c>
       <c r="C55">
-        <v>0.964</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="D55">
         <v>59.1</v>
@@ -1996,7 +2057,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2004,7 +2065,7 @@
         <v>14</v>
       </c>
       <c r="C56">
-        <v>0.961</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="D56">
         <v>49</v>
@@ -2025,7 +2086,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2033,7 +2094,7 @@
         <v>15</v>
       </c>
       <c r="C57">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D57">
         <v>45.3</v>
@@ -2054,7 +2115,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2062,7 +2123,7 @@
         <v>16</v>
       </c>
       <c r="C58">
-        <v>0.955</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="D58">
         <v>50.7</v>
@@ -2080,10 +2141,10 @@
         <v>2011</v>
       </c>
       <c r="I58">
-        <v>35.7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2091,7 +2152,7 @@
         <v>17</v>
       </c>
       <c r="C59">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="D59">
         <v>50.6</v>
@@ -2112,7 +2173,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2120,7 +2181,7 @@
         <v>18</v>
       </c>
       <c r="C60">
-        <v>0.946</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D60">
         <v>48.1</v>
@@ -2138,10 +2199,10 @@
         <v>2011</v>
       </c>
       <c r="I60">
-        <v>35.7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2149,7 +2210,7 @@
         <v>19</v>
       </c>
       <c r="C61">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D61">
         <v>50.3</v>
@@ -2170,7 +2231,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2178,7 +2239,7 @@
         <v>20</v>
       </c>
       <c r="C62">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D62">
         <v>54.3</v>
@@ -2199,7 +2260,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2207,7 +2268,7 @@
         <v>21</v>
       </c>
       <c r="C63">
-        <v>0.955</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="D63">
         <v>41.5</v>
@@ -2216,7 +2277,7 @@
         <v>25.9</v>
       </c>
       <c r="F63">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G63">
         <v>34.6</v>
@@ -2225,10 +2286,10 @@
         <v>2011</v>
       </c>
       <c r="I63">
-        <v>32.3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2236,7 +2297,7 @@
         <v>22</v>
       </c>
       <c r="C64">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="D64">
         <v>41.9</v>
@@ -2248,16 +2309,16 @@
         <v>4</v>
       </c>
       <c r="G64">
-        <v>34.7</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="H64">
         <v>2011</v>
       </c>
       <c r="I64">
-        <v>35.2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2286,7 +2347,7 @@
         <v>30.9</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2294,7 +2355,7 @@
         <v>8</v>
       </c>
       <c r="C66">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="D66">
         <v>46.1</v>
@@ -2315,7 +2376,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2323,7 +2384,7 @@
         <v>9</v>
       </c>
       <c r="C67">
-        <v>0.963</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D67">
         <v>45.1</v>
@@ -2332,10 +2393,10 @@
         <v>27.6</v>
       </c>
       <c r="F67">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G67">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="H67">
         <v>2012</v>
@@ -2344,7 +2405,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2352,7 +2413,7 @@
         <v>10</v>
       </c>
       <c r="C68">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="D68">
         <v>45.4</v>
@@ -2364,7 +2425,7 @@
         <v>5.6</v>
       </c>
       <c r="G68">
-        <v>36.8</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="H68">
         <v>2012</v>
@@ -2373,7 +2434,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2381,7 +2442,7 @@
         <v>11</v>
       </c>
       <c r="C69">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="D69">
         <v>43.4</v>
@@ -2393,16 +2454,16 @@
         <v>5.6</v>
       </c>
       <c r="G69">
-        <v>33.7</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="H69">
         <v>2012</v>
       </c>
       <c r="I69">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2410,7 +2471,7 @@
         <v>12</v>
       </c>
       <c r="C70">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="D70">
         <v>42</v>
@@ -2431,7 +2492,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2439,7 +2500,7 @@
         <v>13</v>
       </c>
       <c r="C71">
-        <v>0.967</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="D71">
         <v>50</v>
@@ -2457,10 +2518,10 @@
         <v>2012</v>
       </c>
       <c r="I71">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2489,7 +2550,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2497,13 +2558,13 @@
         <v>24</v>
       </c>
       <c r="C73">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="D73">
         <v>44.4</v>
       </c>
       <c r="E73">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="F73">
         <v>4.7</v>
@@ -2518,7 +2579,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2526,7 +2587,7 @@
         <v>15</v>
       </c>
       <c r="C74">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D74">
         <v>45.4</v>
@@ -2538,16 +2599,16 @@
         <v>5.4</v>
       </c>
       <c r="G74">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="H74">
         <v>2012</v>
       </c>
       <c r="I74">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2555,7 +2616,7 @@
         <v>16</v>
       </c>
       <c r="C75">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D75">
         <v>46.8</v>
@@ -2576,7 +2637,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2584,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="C76">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D76">
         <v>47.2</v>
@@ -2596,7 +2657,7 @@
         <v>5</v>
       </c>
       <c r="G76">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="H76">
         <v>2012</v>
@@ -2605,7 +2666,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2613,7 +2674,7 @@
         <v>18</v>
       </c>
       <c r="C77">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="D77">
         <v>46.5</v>
@@ -2634,7 +2695,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2642,7 +2703,7 @@
         <v>19</v>
       </c>
       <c r="C78">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="D78">
         <v>49.5</v>
@@ -2651,7 +2712,7 @@
         <v>29.3</v>
       </c>
       <c r="F78">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G78">
         <v>32.9</v>
@@ -2663,7 +2724,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2671,7 +2732,7 @@
         <v>20</v>
       </c>
       <c r="C79">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D79">
         <v>50.7</v>
@@ -2692,7 +2753,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2700,7 +2761,7 @@
         <v>21</v>
       </c>
       <c r="C80">
-        <v>0.963</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D80">
         <v>41.9</v>
@@ -2712,7 +2773,7 @@
         <v>3.8</v>
       </c>
       <c r="G80">
-        <v>33.8</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="H80">
         <v>2012</v>
@@ -2721,7 +2782,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2729,7 +2790,7 @@
         <v>22</v>
       </c>
       <c r="C81">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D81">
         <v>42</v>
@@ -2741,16 +2802,16 @@
         <v>4</v>
       </c>
       <c r="G81">
-        <v>35.7</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="H81">
         <v>2012</v>
       </c>
       <c r="I81">
-        <v>32.7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2758,7 +2819,7 @@
         <v>23</v>
       </c>
       <c r="C82">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="D82">
         <v>41.5</v>
@@ -2779,7 +2840,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2787,7 +2848,7 @@
         <v>8</v>
       </c>
       <c r="C83">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="D83">
         <v>45.9</v>
@@ -2808,7 +2869,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2816,7 +2877,7 @@
         <v>9</v>
       </c>
       <c r="C84">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D84">
         <v>44.7</v>
@@ -2837,7 +2898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2845,7 +2906,7 @@
         <v>10</v>
       </c>
       <c r="C85">
-        <v>0.955</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="D85">
         <v>45</v>
@@ -2866,7 +2927,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2874,7 +2935,7 @@
         <v>11</v>
       </c>
       <c r="C86">
-        <v>0.944</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="D86">
         <v>43.6</v>
@@ -2895,7 +2956,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2903,7 +2964,7 @@
         <v>12</v>
       </c>
       <c r="C87">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="D87">
         <v>44.1</v>
@@ -2912,7 +2973,7 @@
         <v>29.2</v>
       </c>
       <c r="F87">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G87">
         <v>33</v>
@@ -2921,10 +2982,10 @@
         <v>2013</v>
       </c>
       <c r="I87">
-        <v>20.4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2932,7 +2993,7 @@
         <v>13</v>
       </c>
       <c r="C88">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D88">
         <v>51.6</v>
@@ -2953,7 +3014,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2967,7 +3028,7 @@
         <v>46.1</v>
       </c>
       <c r="E89">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F89">
         <v>3.6</v>
@@ -2982,7 +3043,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2990,16 +3051,16 @@
         <v>24</v>
       </c>
       <c r="C90">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="D90">
         <v>45.5</v>
       </c>
       <c r="E90">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="F90">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G90">
         <v>28.5</v>
@@ -3011,7 +3072,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3019,7 +3080,7 @@
         <v>15</v>
       </c>
       <c r="C91">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D91">
         <v>44.8</v>
@@ -3040,7 +3101,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3048,7 +3109,7 @@
         <v>16</v>
       </c>
       <c r="C92">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="D92">
         <v>50.1</v>
@@ -3069,7 +3130,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3077,7 +3138,7 @@
         <v>17</v>
       </c>
       <c r="C93">
-        <v>0.949</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="D93">
         <v>46.8</v>
@@ -3098,7 +3159,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3106,7 +3167,7 @@
         <v>18</v>
       </c>
       <c r="C94">
-        <v>0.947</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="D94">
         <v>46</v>
@@ -3127,7 +3188,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3135,7 +3196,7 @@
         <v>19</v>
       </c>
       <c r="C95">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="D95">
         <v>46.7</v>
@@ -3156,7 +3217,7 @@
         <v>29.2</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3164,7 +3225,7 @@
         <v>20</v>
       </c>
       <c r="C96">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="D96">
         <v>50.4</v>
@@ -3185,7 +3246,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3193,7 +3254,7 @@
         <v>21</v>
       </c>
       <c r="C97">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D97">
         <v>43.8</v>
@@ -3214,7 +3275,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3222,7 +3283,7 @@
         <v>22</v>
       </c>
       <c r="C98">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D98">
         <v>42.4</v>
@@ -3243,7 +3304,7 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3251,7 +3312,7 @@
         <v>23</v>
       </c>
       <c r="C99">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="D99">
         <v>43.8</v>
@@ -3272,7 +3333,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3280,7 +3341,7 @@
         <v>8</v>
       </c>
       <c r="C100">
-        <v>0.946</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D100">
         <v>46.2</v>
@@ -3301,7 +3362,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3309,7 +3370,7 @@
         <v>9</v>
       </c>
       <c r="C101">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="D101">
         <v>42.6</v>
@@ -3321,7 +3382,7 @@
         <v>5.8</v>
       </c>
       <c r="G101">
-        <v>32.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="H101">
         <v>2014</v>
@@ -3330,7 +3391,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3338,7 +3399,7 @@
         <v>10</v>
       </c>
       <c r="C102">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D102">
         <v>41.3</v>
@@ -3359,7 +3420,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3367,16 +3428,16 @@
         <v>11</v>
       </c>
       <c r="C103">
-        <v>0.9379999999999999</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="D103">
-        <v>39.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="E103">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="F103">
-        <v>8.300000000000001</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G103">
         <v>33.5</v>
@@ -3388,7 +3449,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3408,7 +3469,7 @@
         <v>6.4</v>
       </c>
       <c r="G104">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="H104">
         <v>2014</v>
@@ -3417,7 +3478,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3443,10 +3504,10 @@
         <v>2014</v>
       </c>
       <c r="I105">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3454,7 +3515,7 @@
         <v>14</v>
       </c>
       <c r="C106">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D106">
         <v>44.8</v>
@@ -3475,7 +3536,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3483,7 +3544,7 @@
         <v>24</v>
       </c>
       <c r="C107">
-        <v>0.9370000000000001</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="D107">
         <v>45.1</v>
@@ -3501,10 +3562,10 @@
         <v>2014</v>
       </c>
       <c r="I107">
-        <v>38.3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3512,7 +3573,7 @@
         <v>15</v>
       </c>
       <c r="C108">
-        <v>0.945</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="D108">
         <v>44.1</v>
@@ -3533,7 +3594,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3541,7 +3602,7 @@
         <v>16</v>
       </c>
       <c r="C109">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="D109">
         <v>45.8</v>
@@ -3553,16 +3614,16 @@
         <v>8.1</v>
       </c>
       <c r="G109">
-        <v>33.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="H109">
         <v>2014</v>
       </c>
       <c r="I109">
-        <v>35.8</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3570,7 +3631,7 @@
         <v>17</v>
       </c>
       <c r="C110">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="D110">
         <v>43.5</v>
@@ -3579,7 +3640,7 @@
         <v>29.4</v>
       </c>
       <c r="F110">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G110">
         <v>33.6</v>
@@ -3591,7 +3652,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3599,7 +3660,7 @@
         <v>18</v>
       </c>
       <c r="C111">
-        <v>0.9429999999999999</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="D111">
         <v>44.6</v>
@@ -3620,7 +3681,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3628,7 +3689,7 @@
         <v>19</v>
       </c>
       <c r="C112">
-        <v>0.9419999999999999</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="D112">
         <v>43.7</v>
@@ -3649,7 +3710,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3657,7 +3718,7 @@
         <v>20</v>
       </c>
       <c r="C113">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="D113">
         <v>46.2</v>
@@ -3666,19 +3727,19 @@
         <v>26.6</v>
       </c>
       <c r="F113">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G113">
-        <v>34.3</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="H113">
         <v>2014</v>
       </c>
       <c r="I113">
-        <v>35.3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3686,7 +3747,7 @@
         <v>21</v>
       </c>
       <c r="C114">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D114">
         <v>39.9</v>
@@ -3704,10 +3765,10 @@
         <v>2014</v>
       </c>
       <c r="I114">
-        <v>32.3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3733,10 +3794,10 @@
         <v>2014</v>
       </c>
       <c r="I115">
-        <v>32.2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3744,7 +3805,7 @@
         <v>23</v>
       </c>
       <c r="C116">
-        <v>0.947</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="D116">
         <v>41.6</v>
@@ -3762,10 +3823,10 @@
         <v>2014</v>
       </c>
       <c r="I116">
-        <v>34.3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3773,7 +3834,7 @@
         <v>8</v>
       </c>
       <c r="C117">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="D117">
         <v>47.5</v>
@@ -3791,10 +3852,10 @@
         <v>2015</v>
       </c>
       <c r="I117">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3823,7 +3884,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3840,7 +3901,7 @@
         <v>25.4</v>
       </c>
       <c r="F119">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G119">
         <v>28.9</v>
@@ -3849,10 +3910,10 @@
         <v>2015</v>
       </c>
       <c r="I119">
-        <v>19.6</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3860,7 +3921,7 @@
         <v>11</v>
       </c>
       <c r="C120">
-        <v>0.949</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="D120">
         <v>44.9</v>
@@ -3881,7 +3942,7 @@
         <v>20.6</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3889,7 +3950,7 @@
         <v>12</v>
       </c>
       <c r="C121">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D121">
         <v>45.9</v>
@@ -3910,7 +3971,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3918,7 +3979,7 @@
         <v>13</v>
       </c>
       <c r="C122">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D122">
         <v>50.1</v>
@@ -3939,7 +4000,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3947,7 +4008,7 @@
         <v>14</v>
       </c>
       <c r="C123">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="D123">
         <v>43.7</v>
@@ -3968,7 +4029,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3976,7 +4037,7 @@
         <v>24</v>
       </c>
       <c r="C124">
-        <v>0.946</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D124">
         <v>43.1</v>
@@ -3997,7 +4058,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4005,7 +4066,7 @@
         <v>15</v>
       </c>
       <c r="C125">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="D125">
         <v>45.4</v>
@@ -4026,7 +4087,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4034,7 +4095,7 @@
         <v>16</v>
       </c>
       <c r="C126">
-        <v>0.955</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="D126">
         <v>45.3</v>
@@ -4052,10 +4113,10 @@
         <v>2015</v>
       </c>
       <c r="I126">
-        <v>33.8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4063,7 +4124,7 @@
         <v>17</v>
       </c>
       <c r="C127">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D127">
         <v>46.1</v>
@@ -4084,7 +4145,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4092,7 +4153,7 @@
         <v>18</v>
       </c>
       <c r="C128">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="D128">
         <v>44.5</v>
@@ -4113,7 +4174,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4121,7 +4182,7 @@
         <v>19</v>
       </c>
       <c r="C129">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D129">
         <v>47.2</v>
@@ -4130,7 +4191,7 @@
         <v>25.5</v>
       </c>
       <c r="F129">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G129">
         <v>28.3</v>
@@ -4142,7 +4203,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4150,7 +4211,7 @@
         <v>20</v>
       </c>
       <c r="C130">
-        <v>0.955</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="D130">
         <v>47.6</v>
@@ -4168,10 +4229,10 @@
         <v>2015</v>
       </c>
       <c r="I130">
-        <v>37.7</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4179,7 +4240,7 @@
         <v>21</v>
       </c>
       <c r="C131">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="D131">
         <v>40.6</v>
@@ -4200,7 +4261,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4208,10 +4269,10 @@
         <v>22</v>
       </c>
       <c r="C132">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D132">
-        <v>40.2</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="E132">
         <v>25.4</v>
@@ -4229,7 +4290,7 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4237,7 +4298,7 @@
         <v>23</v>
       </c>
       <c r="C133">
-        <v>0.955</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="D133">
         <v>49.1</v>
@@ -4258,7 +4319,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4266,7 +4327,7 @@
         <v>8</v>
       </c>
       <c r="C134">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="D134">
         <v>46.9</v>
@@ -4284,10 +4345,10 @@
         <v>2016</v>
       </c>
       <c r="I134">
-        <v>18.4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4295,7 +4356,7 @@
         <v>9</v>
       </c>
       <c r="C135">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="D135">
         <v>43.3</v>
@@ -4313,10 +4374,10 @@
         <v>2016</v>
       </c>
       <c r="I135">
-        <v>19.9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4333,7 +4394,7 @@
         <v>26.6</v>
       </c>
       <c r="F136">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G136">
         <v>26.9</v>
@@ -4345,7 +4406,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4353,7 +4414,7 @@
         <v>11</v>
       </c>
       <c r="C137">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D137">
         <v>44.4</v>
@@ -4374,7 +4435,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4382,7 +4443,7 @@
         <v>12</v>
       </c>
       <c r="C138">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D138">
         <v>45.7</v>
@@ -4391,7 +4452,7 @@
         <v>28.7</v>
       </c>
       <c r="F138">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G138">
         <v>31.7</v>
@@ -4403,7 +4464,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4411,7 +4472,7 @@
         <v>13</v>
       </c>
       <c r="C139">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D139">
         <v>51.5</v>
@@ -4429,10 +4490,10 @@
         <v>2016</v>
       </c>
       <c r="I139">
-        <v>16.9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4440,7 +4501,7 @@
         <v>14</v>
       </c>
       <c r="C140">
-        <v>0.963</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D140">
         <v>43.6</v>
@@ -4461,7 +4522,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4469,7 +4530,7 @@
         <v>24</v>
       </c>
       <c r="C141">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D141">
         <v>49.2</v>
@@ -4478,7 +4539,7 @@
         <v>25</v>
       </c>
       <c r="F141">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G141">
         <v>26.6</v>
@@ -4490,7 +4551,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4498,7 +4559,7 @@
         <v>15</v>
       </c>
       <c r="C142">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="D142">
         <v>44.4</v>
@@ -4519,7 +4580,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4527,7 +4588,7 @@
         <v>16</v>
       </c>
       <c r="C143">
-        <v>0.955</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="D143">
         <v>43.7</v>
@@ -4545,10 +4606,10 @@
         <v>2016</v>
       </c>
       <c r="I143">
-        <v>35.3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4556,7 +4617,7 @@
         <v>17</v>
       </c>
       <c r="C144">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="D144">
         <v>45.9</v>
@@ -4577,7 +4638,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4585,7 +4646,7 @@
         <v>18</v>
       </c>
       <c r="C145">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="D145">
         <v>45.5</v>
@@ -4606,7 +4667,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4614,7 +4675,7 @@
         <v>19</v>
       </c>
       <c r="C146">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D146">
         <v>43.7</v>
@@ -4635,7 +4696,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4643,7 +4704,7 @@
         <v>20</v>
       </c>
       <c r="C147">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D147">
         <v>45.9</v>
@@ -4664,7 +4725,7 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4672,7 +4733,7 @@
         <v>21</v>
       </c>
       <c r="C148">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D148">
         <v>40.1</v>
@@ -4693,7 +4754,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4701,7 +4762,7 @@
         <v>22</v>
       </c>
       <c r="C149">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="D149">
         <v>41.6</v>
@@ -4710,7 +4771,7 @@
         <v>25.6</v>
       </c>
       <c r="F149">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G149">
         <v>31.7</v>
@@ -4719,10 +4780,10 @@
         <v>2016</v>
       </c>
       <c r="I149">
-        <v>32.7</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4730,7 +4791,7 @@
         <v>23</v>
       </c>
       <c r="C150">
-        <v>0.948</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="D150">
         <v>44.8</v>
@@ -4742,7 +4803,7 @@
         <v>6.6</v>
       </c>
       <c r="G150">
-        <v>32.3</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="H150">
         <v>2016</v>
@@ -4751,7 +4812,7 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4759,7 +4820,7 @@
         <v>8</v>
       </c>
       <c r="C151">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D151">
         <v>48.1</v>
@@ -4777,10 +4838,10 @@
         <v>2017</v>
       </c>
       <c r="I151">
-        <v>18.6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4788,7 +4849,7 @@
         <v>9</v>
       </c>
       <c r="C152">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D152">
         <v>42.8</v>
@@ -4809,7 +4870,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4817,7 +4878,7 @@
         <v>10</v>
       </c>
       <c r="C153">
-        <v>0.963</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D153">
         <v>41.9</v>
@@ -4826,7 +4887,7 @@
         <v>25.5</v>
       </c>
       <c r="F153">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G153">
         <v>24.9</v>
@@ -4835,10 +4896,10 @@
         <v>2017</v>
       </c>
       <c r="I153">
-        <v>20.1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4846,7 +4907,7 @@
         <v>11</v>
       </c>
       <c r="C154">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="D154">
         <v>43.3</v>
@@ -4867,7 +4928,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4875,7 +4936,7 @@
         <v>12</v>
       </c>
       <c r="C155">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="D155">
         <v>46.5</v>
@@ -4896,7 +4957,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4904,7 +4965,7 @@
         <v>13</v>
       </c>
       <c r="C156">
-        <v>0.963</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D156">
         <v>51</v>
@@ -4925,7 +4986,7 @@
         <v>16.2</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4933,7 +4994,7 @@
         <v>14</v>
       </c>
       <c r="C157">
-        <v>0.967</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="D157">
         <v>46.1</v>
@@ -4942,7 +5003,7 @@
         <v>24.4</v>
       </c>
       <c r="F157">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G157">
         <v>27.5</v>
@@ -4954,7 +5015,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4962,7 +5023,7 @@
         <v>24</v>
       </c>
       <c r="C158">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="D158">
         <v>48.8</v>
@@ -4983,7 +5044,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4991,7 +5052,7 @@
         <v>15</v>
       </c>
       <c r="C159">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D159">
         <v>44</v>
@@ -5012,7 +5073,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5020,7 +5081,7 @@
         <v>16</v>
       </c>
       <c r="C160">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D160">
         <v>45.4</v>
@@ -5038,10 +5099,10 @@
         <v>2017</v>
       </c>
       <c r="I160">
-        <v>36.3</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5049,7 +5110,7 @@
         <v>17</v>
       </c>
       <c r="C161">
-        <v>0.957</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="D161">
         <v>46.7</v>
@@ -5070,7 +5131,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5078,7 +5139,7 @@
         <v>18</v>
       </c>
       <c r="C162">
-        <v>0.947</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="D162">
         <v>43.3</v>
@@ -5099,7 +5160,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -5107,7 +5168,7 @@
         <v>19</v>
       </c>
       <c r="C163">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="D163">
         <v>44.5</v>
@@ -5128,7 +5189,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -5136,7 +5197,7 @@
         <v>20</v>
       </c>
       <c r="C164">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D164">
         <v>46.8</v>
@@ -5145,7 +5206,7 @@
         <v>25.4</v>
       </c>
       <c r="F164">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G164">
         <v>30.4</v>
@@ -5154,10 +5215,10 @@
         <v>2017</v>
       </c>
       <c r="I164">
-        <v>40.2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5174,7 +5235,7 @@
         <v>24.7</v>
       </c>
       <c r="F165">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G165">
         <v>31.4</v>
@@ -5186,7 +5247,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -5194,7 +5255,7 @@
         <v>22</v>
       </c>
       <c r="C166">
-        <v>0.963</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D166">
         <v>41.3</v>
@@ -5215,7 +5276,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -5223,7 +5284,7 @@
         <v>23</v>
       </c>
       <c r="C167">
-        <v>0.961</v>
+        <v>0.96099999999999997</v>
       </c>
       <c r="D167">
         <v>46.4</v>
@@ -5244,7 +5305,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5252,7 +5313,7 @@
         <v>8</v>
       </c>
       <c r="C168">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="D168">
         <v>45.8</v>
@@ -5261,7 +5322,7 @@
         <v>27.7</v>
       </c>
       <c r="F168">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G168">
         <v>22.2</v>
@@ -5270,10 +5331,10 @@
         <v>2018</v>
       </c>
       <c r="I168">
-        <v>18.6</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5302,7 +5363,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5328,10 +5389,10 @@
         <v>2018</v>
       </c>
       <c r="I170">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -5339,7 +5400,7 @@
         <v>11</v>
       </c>
       <c r="C171">
-        <v>0.945</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="D171">
         <v>36.5</v>
@@ -5357,10 +5418,10 @@
         <v>2018</v>
       </c>
       <c r="I171">
-        <v>20.1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -5368,7 +5429,7 @@
         <v>12</v>
       </c>
       <c r="C172">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="D172">
         <v>40.9</v>
@@ -5389,7 +5450,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5397,7 +5458,7 @@
         <v>13</v>
       </c>
       <c r="C173">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="D173">
         <v>48</v>
@@ -5418,7 +5479,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5426,7 +5487,7 @@
         <v>14</v>
       </c>
       <c r="C174">
-        <v>0.966</v>
+        <v>0.96599999999999997</v>
       </c>
       <c r="D174">
         <v>47</v>
@@ -5447,7 +5508,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -5455,7 +5516,7 @@
         <v>24</v>
       </c>
       <c r="C175">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="D175">
         <v>43.6</v>
@@ -5476,7 +5537,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5484,7 +5545,7 @@
         <v>15</v>
       </c>
       <c r="C176">
-        <v>0.954</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="D176">
         <v>41.6</v>
@@ -5502,10 +5563,10 @@
         <v>2018</v>
       </c>
       <c r="I176">
-        <v>19.4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5513,7 +5574,7 @@
         <v>16</v>
       </c>
       <c r="C177">
-        <v>0.9409999999999999</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="D177">
         <v>45.2</v>
@@ -5534,7 +5595,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5542,7 +5603,7 @@
         <v>17</v>
       </c>
       <c r="C178">
-        <v>0.949</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="D178">
         <v>43.7</v>
@@ -5563,7 +5624,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5571,7 +5632,7 @@
         <v>18</v>
       </c>
       <c r="C179">
-        <v>0.931</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="D179">
         <v>40.5</v>
@@ -5592,7 +5653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5600,7 +5661,7 @@
         <v>19</v>
       </c>
       <c r="C180">
-        <v>0.9350000000000001</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="D180">
         <v>38.1</v>
@@ -5609,7 +5670,7 @@
         <v>28.7</v>
       </c>
       <c r="F180">
-        <v>8.699999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G180">
         <v>29.2</v>
@@ -5618,10 +5679,10 @@
         <v>2018</v>
       </c>
       <c r="I180">
-        <v>32.3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5629,7 +5690,7 @@
         <v>20</v>
       </c>
       <c r="C181">
-        <v>0.9350000000000001</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="D181">
         <v>43.8</v>
@@ -5638,7 +5699,7 @@
         <v>25.4</v>
       </c>
       <c r="F181">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G181">
         <v>29.8</v>
@@ -5650,7 +5711,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5658,10 +5719,10 @@
         <v>21</v>
       </c>
       <c r="C182">
-        <v>0.9409999999999999</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="D182">
-        <v>38.8</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="E182">
         <v>24.5</v>
@@ -5679,7 +5740,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5687,7 +5748,7 @@
         <v>22</v>
       </c>
       <c r="C183">
-        <v>0.951</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D183">
         <v>38.1</v>
@@ -5708,7 +5769,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5716,7 +5777,7 @@
         <v>23</v>
       </c>
       <c r="C184">
-        <v>0.952</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="D184">
         <v>41.6</v>
@@ -5737,7 +5798,7 @@
         <v>26.8</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5745,7 +5806,7 @@
         <v>8</v>
       </c>
       <c r="C185">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="D185">
         <v>44.5</v>
@@ -5766,7 +5827,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5774,7 +5835,7 @@
         <v>9</v>
       </c>
       <c r="C186">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="D186">
         <v>40.4</v>
@@ -5795,7 +5856,7 @@
         <v>23.2</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5803,7 +5864,7 @@
         <v>10</v>
       </c>
       <c r="C187">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="D187">
         <v>41.6</v>
@@ -5824,7 +5885,7 @@
         <v>19.3</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5832,10 +5893,10 @@
         <v>11</v>
       </c>
       <c r="C188">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="D188">
-        <v>38.2</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="E188">
         <v>29.9</v>
@@ -5853,7 +5914,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5861,7 +5922,7 @@
         <v>12</v>
       </c>
       <c r="C189">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D189">
         <v>41.3</v>
@@ -5882,7 +5943,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5890,7 +5951,7 @@
         <v>13</v>
       </c>
       <c r="C190">
-        <v>0.967</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="D190">
         <v>52.4</v>
@@ -5908,10 +5969,10 @@
         <v>2019</v>
       </c>
       <c r="I190">
-        <v>19.1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -5919,7 +5980,7 @@
         <v>14</v>
       </c>
       <c r="C191">
-        <v>0.959</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="D191">
         <v>43.8</v>
@@ -5940,7 +6001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -5948,7 +6009,7 @@
         <v>24</v>
       </c>
       <c r="C192">
-        <v>0.965</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="D192">
         <v>44.7</v>
@@ -5957,7 +6018,7 @@
         <v>29.2</v>
       </c>
       <c r="F192">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G192">
         <v>22.9</v>
@@ -5969,7 +6030,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -5977,10 +6038,10 @@
         <v>15</v>
       </c>
       <c r="C193">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="D193">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E193">
         <v>27.7</v>
@@ -5998,7 +6059,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6006,7 +6067,7 @@
         <v>16</v>
       </c>
       <c r="C194">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="D194">
         <v>43.8</v>
@@ -6027,7 +6088,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6035,10 +6096,10 @@
         <v>17</v>
       </c>
       <c r="C195">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="D195">
-        <v>40.8</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="E195">
         <v>26.2</v>
@@ -6056,7 +6117,7 @@
         <v>31.3</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6064,7 +6125,7 @@
         <v>18</v>
       </c>
       <c r="C196">
-        <v>0.947</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="D196">
         <v>40</v>
@@ -6085,7 +6146,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6093,7 +6154,7 @@
         <v>19</v>
       </c>
       <c r="C197">
-        <v>0.953</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="D197">
         <v>41.2</v>
@@ -6114,7 +6175,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -6122,7 +6183,7 @@
         <v>20</v>
       </c>
       <c r="C198">
-        <v>0.963</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="D198">
         <v>45.1</v>
@@ -6143,7 +6204,7 @@
         <v>44.1</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -6151,10 +6212,10 @@
         <v>21</v>
       </c>
       <c r="C199">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D199">
-        <v>37.8</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="E199">
         <v>24.3</v>
@@ -6169,10 +6230,10 @@
         <v>2019</v>
       </c>
       <c r="I199">
-        <v>32.8</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -6180,7 +6241,7 @@
         <v>22</v>
       </c>
       <c r="C200">
-        <v>0.958</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="D200">
         <v>39.4</v>
@@ -6198,10 +6259,10 @@
         <v>2019</v>
       </c>
       <c r="I200">
-        <v>36.2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6209,16 +6270,16 @@
         <v>23</v>
       </c>
       <c r="C201">
-        <v>0.956</v>
+        <v>0.95599999999999996</v>
       </c>
       <c r="D201">
-        <v>40.7</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="E201">
         <v>23.2</v>
       </c>
       <c r="F201">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G201">
         <v>28.1</v>
@@ -6231,6 +6292,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I201" xr:uid="{605F3B95-CAFC-4FBA-85A1-7607F028C4CA}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="세종특별자치시"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>